--- a/docs/shrcore/shr-core-MedicationStatement-model.xlsx
+++ b/docs/shrcore/shr-core-MedicationStatement-model.xlsx
@@ -332,17 +332,17 @@
 </t>
   </si>
   <si>
-    <t>shr-core-MedicationStatement-model.medicationStatementBasedOn[x]</t>
+    <t>shr-core-MedicationStatement-model.medicationBasedOn[x]</t>
   </si>
   <si>
     <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ServiceRequest-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MedicationRequest-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferralRequest-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest-model]]}
 </t>
   </si>
   <si>
-    <t>MedicationStatementBasedOn</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationStatement-model.medicationStatementBasedOnShr-core-ServiceRequest-model</t>
+    <t>MedicationBasedOn</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationStatement-model.medicationBasedOnShr-core-ServiceRequest-model</t>
   </si>
   <si>
     <t>ServiceRequest</t>
@@ -355,7 +355,7 @@
     <t>A record of a request for service such as diagnostic investigations, treatments, or operations to be performed.</t>
   </si>
   <si>
-    <t>shr-core-MedicationStatement-model.medicationStatementBasedOnShr-core-MedicationRequest-model</t>
+    <t>shr-core-MedicationStatement-model.medicationBasedOnShr-core-MedicationRequest-model</t>
   </si>
   <si>
     <t>MedicationRequest</t>
@@ -374,7 +374,7 @@
 Intent was added in STU3 and is provided as an extension with required binding.</t>
   </si>
   <si>
-    <t>shr-core-MedicationStatement-model.medicationStatementBasedOnShr-core-ReferralRequest-model</t>
+    <t>shr-core-MedicationStatement-model.medicationBasedOnShr-core-ReferralRequest-model</t>
   </si>
   <si>
     <t>ReferralRequest</t>
@@ -387,7 +387,7 @@
     <t>Used to record and send details about a request for referral service or transfer of a patient to the care of another provider or provider organization.</t>
   </si>
   <si>
-    <t>shr-core-MedicationStatement-model.medicationStatementBasedOnShr-core-ProcedureRequest-model</t>
+    <t>shr-core-MedicationStatement-model.medicationBasedOnShr-core-ProcedureRequest-model</t>
   </si>
   <si>
     <t>ProcedureRequest</t>
@@ -544,7 +544,7 @@
     <t>http://hl7.org/fhir/ValueSet/medication-statement-category</t>
   </si>
   <si>
-    <t>shr-core-MedicationStatement-model.medicationStatementInformationSource[x]</t>
+    <t>shr-core-MedicationStatement-model.medicationInformationSource[x]</t>
   </si>
   <si>
     <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization-model]]}
@@ -742,7 +742,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ40"/>
+  <dimension ref="A1:AI40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -781,7 +781,7 @@
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="74.10546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="64.73046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
